--- a/ExcelSample.xlsx
+++ b/ExcelSample.xlsx
@@ -6,30 +6,34 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="test" r:id="rId3" sheetId="1"/>
+    <sheet name="Andrzej Wojciechowski" r:id="rId3" sheetId="1"/>
+    <sheet name="Jan Nowak" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
-    <t>Header 1</t>
+    <t>Account balance -&gt;</t>
   </si>
   <si>
-    <t>Header 2</t>
+    <t>PLN</t>
   </si>
   <si>
-    <t>Header 3</t>
+    <t>USD</t>
   </si>
   <si>
-    <t>Value1</t>
+    <t>EUR</t>
   </si>
   <si>
-    <t>Value2</t>
+    <t>CZK</t>
   </si>
   <si>
-    <t>Value3</t>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>DKK</t>
   </si>
 </sst>
 </file>
@@ -74,7 +78,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -90,16 +94,93 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
